--- a/tables/xlsx/Item/Costume.xlsx
+++ b/tables/xlsx/Item/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\Projects\Planetarium\NineChronicles\tables\xlsx\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC191ADC-D416-473B-9CF3-BA96697F85E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A4CD6F-E011-4F98-A62F-C8002F90EE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="645" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemSheet" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>$_name</t>
+  </si>
+  <si>
+    <t>some</t>
   </si>
 </sst>
 </file>
@@ -815,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45121C54-3E92-4E71-BC20-82FA7A9D5364}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +838,9 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1794,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA74D00-619B-4BBB-A90A-36DCB064733C}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
